--- a/biology/Botanique/Férule_à_sagapénum/Férule_à_sagapénum.xlsx
+++ b/biology/Botanique/Férule_à_sagapénum/Férule_à_sagapénum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9rule_%C3%A0_sagap%C3%A9num</t>
+          <t>Férule_à_sagapénum</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferula persica, la Férule persique[2], Férule de Perse[3] ou Férule à sagapénum[3], est une espèce de plantes à fleurs de la famille des Apiaceae et du genre Ferula. Elle est originaire du Caucase et d'Iran[4],[5], où on en extrait une gomme-résine appelée  sagapénum ou gomme séraphique[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferula persica, la Férule persique, Férule de Perse ou Férule à sagapénum, est une espèce de plantes à fleurs de la famille des Apiaceae et du genre Ferula. Elle est originaire du Caucase et d'Iran où on en extrait une gomme-résine appelée  sagapénum ou gomme séraphique.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9rule_%C3%A0_sagap%C3%A9num</t>
+          <t>Férule_à_sagapénum</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée aux tiges robustes, creuses, quelque peu succulentes, atteignant jusqu'à un mètre de hauteur et aux fleurs jaunes[6]. Les feuilles sont découpées en lanières étroites[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée aux tiges robustes, creuses, quelque peu succulentes, atteignant jusqu'à un mètre de hauteur et aux fleurs jaunes. Les feuilles sont découpées en lanières étroites.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9rule_%C3%A0_sagap%C3%A9num</t>
+          <t>Férule_à_sagapénum</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,19 +556,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en premier par le botaniste et pharmacien allemand Carl Ludwig Willdenow en 1798, dans son Species Plantarum[7]qui la classe dans le genre Ferula sous le nom binominal Ferula persica[4],[5].
-Synonymes
-Ferula persica a pour synonymes :
-Ferula puberula Boiss. &amp; Buhse, 1860[4],[5]
-Ferula szowitziana var. kandavanensis Bornm. &amp; Gouba[4]
-Peucedanum persicum (Willd.) Baill., 1879[4],[5]
-Prangos euryangiodes Stapf &amp; Wettst., 1886[4],[5]
-Variétés
-Selon GBIF       (23 avril 2021)[4] :
-Ferula persica var. latisecta D.F.Chamb.
-Ferula persica var. persica</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est décrite en premier par le botaniste et pharmacien allemand Carl Ludwig Willdenow en 1798, dans son Species Plantarumqui la classe dans le genre Ferula sous le nom binominal Ferula persica,.
+</t>
         </is>
       </c>
     </row>
@@ -564,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9rule_%C3%A0_sagap%C3%A9num</t>
+          <t>Férule_à_sagapénum</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,12 +586,93 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferula persica a pour synonymes :
+Ferula puberula Boiss. &amp; Buhse, 1860,
+Ferula szowitziana var. kandavanensis Bornm. &amp; Gouba
+Peucedanum persicum (Willd.) Baill., 1879,
+Prangos euryangiodes Stapf &amp; Wettst., 1886,
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Férule_à_sagapénum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9rule_%C3%A0_sagap%C3%A9num</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (23 avril 2021) :
+Ferula persica var. latisecta D.F.Chamb.
+Ferula persica var. persica</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Férule_à_sagapénum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/F%C3%A9rule_%C3%A0_sagap%C3%A9num</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Composants et usages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ferula persica est l'espèce de Ferula la plus connue en Iran et possède deux variétés : persica et latisecta. Elles ont toutes deux été largement utilisées dans la médecine traditionnelle pour un large éventail d'affections. Un grand nombre de composés chimiques, dont des coumarines sesquiterpènes et des polysulfures, ont été isolés de cette plante. Les matières végétales fraîches, les extraits bruts et les composants isolés de F. persica ont montré un large éventail de propriétés pharmacologiques, notamment une activité anti-pigmentation chez Serratia marcescens, cytotoxique, antibactérienne, antifongique, antileishmanienne, chimiopréventive du cancer, une inversion de la multirésistance aux médicaments, une activité anti-inflammatoire et inhibitrice de la lipoxygénase[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ferula persica est l'espèce de Ferula la plus connue en Iran et possède deux variétés : persica et latisecta. Elles ont toutes deux été largement utilisées dans la médecine traditionnelle pour un large éventail d'affections. Un grand nombre de composés chimiques, dont des coumarines sesquiterpènes et des polysulfures, ont été isolés de cette plante. Les matières végétales fraîches, les extraits bruts et les composants isolés de F. persica ont montré un large éventail de propriétés pharmacologiques, notamment une activité anti-pigmentation chez Serratia marcescens, cytotoxique, antibactérienne, antifongique, antileishmanienne, chimiopréventive du cancer, une inversion de la multirésistance aux médicaments, une activité anti-inflammatoire et inhibitrice de la lipoxygénase.
 </t>
         </is>
       </c>
